--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53090.98573899866</v>
+        <v>10565106.16206072</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53090.98573899866</v>
+        <v>10565106.16206072</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.773511938166223</v>
+        <v>286.4107162899734</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.773511938166223</v>
+        <v>286.4107162899734</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>959104950.1779853</v>
+        <v>39446381.52131739</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8097.652063916173</v>
+        <v>897442.5797661536</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15487.12846487571</v>
+        <v>1684529.362414334</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22876.60486583524</v>
+        <v>2471616.145062516</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30613.44091376923</v>
+        <v>3275179.391634024</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38267.60059806687</v>
+        <v>4062290.041841897</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>45921.76028236449</v>
+        <v>4849400.692049768</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53575.91996666211</v>
+        <v>5636511.342257637</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61230.07965095973</v>
+        <v>6423621.992465504</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68884.23933525736</v>
+        <v>7210732.642673373</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76538.39901955381</v>
+        <v>7997843.292881242</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84192.55870385142</v>
+        <v>8784953.943089115</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91518.22935037153</v>
+        <v>9556368.438145477</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98922.77514840681</v>
+        <v>10343479.08835335</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106327.3209464421</v>
+        <v>11130589.73856123</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113731.8667444773</v>
+        <v>11917700.38876911</v>
       </c>
     </row>
   </sheetData>
